--- a/docs/Estrutura_de_dados_planilha_de_testes.xlsx
+++ b/docs/Estrutura_de_dados_planilha_de_testes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desenvolvimento\estrutura_de_dados_projeto_fila\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5492202C-FB26-4347-B95E-D90A06B34FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9FA9FB-84A3-4225-BBCE-C91B59E72541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FFF971A-5205-4DA8-8CB4-70146AA1587C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FFF971A-5205-4DA8-8CB4-70146AA1587C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Executar programa</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Gerar senha prioritária (1), e depois, mostrar senhas</t>
   </si>
   <si>
-    <t>Gerar segunda senha prioritária</t>
-  </si>
-  <si>
     <t>Gerar segunda senha normal</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Detalhe importante</t>
   </si>
   <si>
-    <t>Gerar nova senha com valor inexistente</t>
-  </si>
-  <si>
     <t>Ao gerar nova senha de um valor abaixo de 0 e acima de 1.</t>
   </si>
   <si>
@@ -175,6 +169,21 @@
   </si>
   <si>
     <t>Faça os testes com pensamento crítico, pense cenários novos, no teste exploratório (13), escreva fluxos se você criar, tente criar fluxos não contemplados aqui, pode pegar o cenário que inicia do 7 ao 12 e refaça mas com outra ordem nos prioritários, etc.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Gerar segunda senhaok prioritária</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Gerar nova senha tipo de senha de valor invalido</t>
+  </si>
+  <si>
+    <t>Aceitou o número negativo</t>
   </si>
 </sst>
 </file>
@@ -320,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -357,21 +366,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -389,16 +401,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -714,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFCDCA5-C29F-4C7A-A2A2-22B92837239E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,28 +732,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -766,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>4</v>
@@ -785,6 +787,9 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -799,7 +804,9 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -814,6 +821,9 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -828,6 +838,9 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -842,19 +855,25 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -862,16 +881,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -879,16 +901,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
+      <c r="F11" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -896,16 +921,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>26</v>
+      <c r="F12" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -913,16 +941,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>32</v>
+      <c r="F13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -930,16 +964,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -947,30 +984,36 @@
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>35</v>
+      <c r="F15" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -979,10 +1022,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +1033,7 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F1048576">
+  <conditionalFormatting sqref="F3:F1048576 G13">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>

--- a/docs/Estrutura_de_dados_planilha_de_testes.xlsx
+++ b/docs/Estrutura_de_dados_planilha_de_testes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desenvolvimento\estrutura_de_dados_projeto_fila\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9FA9FB-84A3-4225-BBCE-C91B59E72541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08891BC0-3619-4B52-91BE-ACBC2C29ECE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FFF971A-5205-4DA8-8CB4-70146AA1587C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7FFF971A-5205-4DA8-8CB4-70146AA1587C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Execução 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Execução 2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>Executar programa</t>
   </si>
@@ -184,6 +185,9 @@
   </si>
   <si>
     <t>Aceitou o número negativo</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -370,20 +374,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -716,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFCDCA5-C29F-4C7A-A2A2-22B92837239E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,24 +756,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -912,7 +936,7 @@
       <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -932,7 +956,7 @@
       <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -952,10 +976,10 @@
       <c r="E13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -975,7 +999,7 @@
       <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -995,7 +1019,7 @@
       <c r="E15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1013,7 +1037,7 @@
       <c r="E16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1032,6 +1056,338 @@
   <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F1048576 G13">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56FC5C-A672-4B66-B183-4C73081EBB9D}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F1048576 G13">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
